--- a/electrotehnicaOk.xlsx
+++ b/electrotehnicaOk.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0364B6F-6DDA-468E-83E1-DF160C144FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BC560A-0EA7-4A6E-BCF2-86897C4B5DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4034,7 +4034,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4062,6 +4062,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4107,7 +4113,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4194,6 +4200,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -53781,8 +53790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C276" sqref="C276"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -55718,7 +55727,7 @@
       <c r="B102" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="31" t="s">
         <v>930</v>
       </c>
       <c r="D102" s="27" t="s">
